--- a/test_data/ModifyBaseServiceAPIs.xlsx
+++ b/test_data/ModifyBaseServiceAPIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSApp_AutoTest_janis\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSAPP_5api\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B30AA9-AB73-481F-93A7-1A2452277C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F2F486-8AFB-4FAA-8C68-EDEBDFE492B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D90D4049-E18D-4223-B876-5288D8845B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,18 +44,6 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "token":"DEV",
-  "os":"android",
-  "action":"D",
-  "service_id":"2"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","service_list":[{"service_id":"2","service_status":"1"}],"ret_code":"0"}}</t>
   </si>
   <si>
     <t>{
@@ -67,37 +55,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","service_list":[{"service_id":"1","service_status":"1"}],"ret_code":"0"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Expected Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>申裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取消基本服務</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>API</t>
+    </r>
   </si>
   <si>
     <t>{
   "token":"DEV",
   "os":"android",
-  "action":"D",
-  "service_id":"3"
+  "action":"A",
+  "service_id":"1"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","service_list":[{"service_id":"3","service_status":"1"}],"ret_code":"0"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
   "token":"DEV",
-  "os":"android",
+  "os":"ios",
+  "action":"A",
+  "service_id":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "token":"DEV",
+  "os":"ios",
   "action":"D",
-  "service_id":"4"
+  "service_id":"1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","service_list":[{"service_id":"4","service_status":"1"}],"ret_code":"0"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected Result</t>
+    <t>A:申請
+D:取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"cs_app":{"uid":"82800","subscrid":"14796488","service_list":[{"service_id":"1",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"service_status":"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}],"ret_code":"0"}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> service_status	服務異動狀態(0:成功/1:失敗)
+ service_id		可帶多個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +183,27 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -151,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +243,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCBABB-C1AD-483E-9ACA-C3BBA4EF43CA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -509,10 +598,12 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="5" width="24.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,21 +611,35 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -542,21 +647,39 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -564,10 +687,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
